--- a/code/accidents_at_work/age_groups_12.xlsx
+++ b/code/accidents_at_work/age_groups_12.xlsx
@@ -101,11 +101,16 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
@@ -229,10 +234,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -415,13 +420,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -511,19 +510,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -778,13 +777,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1088,19 +1081,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1357,8 +1350,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.4297" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.4688" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.1719" style="1" customWidth="1"/>
     <col min="4" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -1520,5 +1513,8 @@
   </sheetData>
   <pageMargins left="0.15748" right="0.15748" top="1.41732" bottom="0.19685" header="0.11811" footer="0.11811"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="85" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/code/accidents_at_work/age_groups_12.xlsx
+++ b/code/accidents_at_work/age_groups_12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>ages</t>
   </si>
@@ -22,7 +22,13 @@
     <t>percentage</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>15 and younger</t>
+  </si>
+  <si>
+    <t>2012</t>
   </si>
   <si>
     <t>15-19</t>
@@ -1344,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1353,7 +1359,8 @@
     <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.1719" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" customHeight="1">
@@ -1366,148 +1373,190 @@
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="13.2" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="13.2" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7">
         <v>8</v>
       </c>
       <c r="C3" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.2" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
         <v>231</v>
       </c>
       <c r="C4" t="s" s="8">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="13.2" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7">
         <v>495</v>
       </c>
       <c r="C5" t="s" s="8">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="13.2" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7">
         <v>658</v>
       </c>
       <c r="C6" t="s" s="8">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="13.2" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7">
         <v>725</v>
       </c>
       <c r="C7" t="s" s="8">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="8" ht="13.2" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7">
         <v>654</v>
       </c>
       <c r="C8" t="s" s="8">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="13.2" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="7">
         <v>604</v>
       </c>
       <c r="C9" t="s" s="8">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D9" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="10" ht="13.2" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7">
         <v>501</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D10" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.2" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="7">
         <v>308</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D11" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="12" ht="13.2" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7">
         <v>60</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D12" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7">
         <v>10</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D13" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1">
       <c r="A14" t="s" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="10">
         <v>0</v>
       </c>
       <c r="C14" s="11">
         <v>0</v>
+      </c>
+      <c r="D14" t="s" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
